--- a/Pivot-Table-Dashboard.xlsx
+++ b/Pivot-Table-Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalpana singh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C419E26-AEBD-4E69-AE74-51CDE05E02E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143F42B3-63D2-454E-962C-41DECE9480A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -296,7 +296,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2204,8 +2203,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Year">
@@ -2228,7 +2227,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2282,8 +2281,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Region">
@@ -2306,7 +2305,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15685,8 +15684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46157,10 +46156,10 @@
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>74292</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>142</v>
       </c>
     </row>
@@ -46168,10 +46167,10 @@
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>66064</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>122</v>
       </c>
     </row>
@@ -46179,10 +46178,10 @@
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>80198</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>140</v>
       </c>
     </row>
@@ -46190,10 +46189,10 @@
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>84618</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>158</v>
       </c>
     </row>
@@ -46201,10 +46200,10 @@
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>75733</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>143</v>
       </c>
     </row>
@@ -46212,10 +46211,10 @@
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>77360</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>151</v>
       </c>
     </row>
@@ -46223,10 +46222,10 @@
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>87451</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>157</v>
       </c>
     </row>
@@ -46234,10 +46233,10 @@
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>545716</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>1013</v>
       </c>
     </row>
@@ -46273,7 +46272,7 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>72488</v>
       </c>
     </row>
@@ -46281,7 +46280,7 @@
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>80548</v>
       </c>
     </row>
@@ -46289,7 +46288,7 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>77830</v>
       </c>
     </row>
@@ -46297,7 +46296,7 @@
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>82269</v>
       </c>
     </row>
@@ -46305,7 +46304,7 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>71991</v>
       </c>
     </row>
@@ -46313,7 +46312,7 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>82666</v>
       </c>
     </row>
@@ -46321,7 +46320,7 @@
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>77924</v>
       </c>
     </row>
@@ -46329,7 +46328,7 @@
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>545716</v>
       </c>
     </row>
@@ -46364,7 +46363,7 @@
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>132042</v>
       </c>
     </row>
@@ -46372,7 +46371,7 @@
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>141647</v>
       </c>
     </row>
@@ -46380,7 +46379,7 @@
       <c r="A6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>140221</v>
       </c>
     </row>
@@ -46388,7 +46387,7 @@
       <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>131806</v>
       </c>
     </row>
@@ -46396,7 +46395,7 @@
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>545716</v>
       </c>
     </row>
@@ -46431,7 +46430,7 @@
       <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>110254</v>
       </c>
     </row>
@@ -46439,7 +46438,7 @@
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>122007</v>
       </c>
     </row>
@@ -46447,7 +46446,7 @@
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>111739</v>
       </c>
     </row>
@@ -46455,7 +46454,7 @@
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>106721</v>
       </c>
     </row>
@@ -46463,7 +46462,7 @@
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>94995</v>
       </c>
     </row>
@@ -46471,7 +46470,7 @@
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>545716</v>
       </c>
     </row>
@@ -46484,14 +46483,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="U9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="9" spans="21:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="U9" s="9"/>
+      <c r="U9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
